--- a/src/main/resources/dataFile.xlsx
+++ b/src/main/resources/dataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -306,6 +306,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,142 +452,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,13 +462,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,55 +576,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,114 +624,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -671,11 +671,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,8 +726,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +762,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,26 +786,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,137 +814,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,7 +954,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1287,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1379,479 +1411,467 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4" t="s">
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4" t="s">
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.25" spans="1:63">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.25" spans="1:63">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AN4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AP4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AR4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AS4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AT4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AU4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AV4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AX4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AY4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BA4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BB4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BC4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BD4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BE4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BF4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BG4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BH4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BI4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BJ4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BK4" s="6" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="5">
     <mergeCell ref="A1:BK1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>

--- a/src/main/resources/dataFile.xlsx
+++ b/src/main/resources/dataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView windowWidth="21000" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>{data}年全市人社系统重点工作指标进度及成效评价一览表</t>
   </si>
@@ -30,9 +30,6 @@
     <t>重点指标、重点项目</t>
   </si>
   <si>
-    <t>责任领导</t>
-  </si>
-  <si>
     <t>全市</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>{.drawName}</t>
-  </si>
-  <si>
-    <t>{.leader}</t>
   </si>
   <si>
     <t>{.task0}</t>
@@ -309,15 +303,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,104 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -438,20 +426,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,187 +456,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,17 +691,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +735,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -747,45 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -802,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,133 +808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,21 +1311,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK4"/>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="63" width="15.625" customWidth="1"/>
-    <col min="64" max="64" width="15.625"/>
+    <col min="4" max="62" width="15.625" customWidth="1"/>
+    <col min="63" max="64" width="15.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:63">
+    <row r="1" ht="31.5" spans="1:62">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,9 +1390,8 @@
       <c r="BH1" s="2"/>
       <c r="BI1" s="2"/>
       <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.25" spans="1:63">
+    <row r="2" s="1" customFormat="1" ht="20.25" spans="1:62">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,98 +1401,97 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="R2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="W2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="AB2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="AG2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
       <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="AV2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="BA2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="BF2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="6"/>
       <c r="BH2" s="6"/>
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:63">
+    <row r="3" s="1" customFormat="1" ht="20.25" spans="1:62">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1513,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>17</v>
@@ -1525,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>17</v>
@@ -1537,10 +1529,10 @@
         <v>19</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>17</v>
@@ -1552,10 +1544,10 @@
         <v>19</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>17</v>
@@ -1567,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>17</v>
@@ -1582,10 +1574,10 @@
         <v>19</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>17</v>
@@ -1597,10 +1589,10 @@
         <v>19</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AM3" s="6" t="s">
         <v>17</v>
@@ -1612,10 +1604,10 @@
         <v>19</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AR3" s="6" t="s">
         <v>17</v>
@@ -1627,10 +1619,10 @@
         <v>19</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AW3" s="6" t="s">
         <v>17</v>
@@ -1642,10 +1634,10 @@
         <v>19</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BB3" s="6" t="s">
         <v>17</v>
@@ -1657,10 +1649,10 @@
         <v>19</v>
       </c>
       <c r="BE3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BG3" s="6" t="s">
         <v>17</v>
@@ -1672,210 +1664,203 @@
         <v>19</v>
       </c>
       <c r="BJ3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.25" spans="1:62">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20.25" spans="1:63">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AL4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AO4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AR4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AR4" s="6" t="s">
+      <c r="AS4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AT4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AT4" s="6" t="s">
+      <c r="AU4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AV4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AW4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AW4" s="6" t="s">
+      <c r="AX4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AX4" s="6" t="s">
+      <c r="AY4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AY4" s="6" t="s">
+      <c r="AZ4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="BA4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BA4" s="6" t="s">
+      <c r="BB4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="6" t="s">
+      <c r="BC4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC4" s="6" t="s">
+      <c r="BD4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BD4" s="6" t="s">
+      <c r="BE4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BE4" s="6" t="s">
+      <c r="BF4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BF4" s="6" t="s">
+      <c r="BG4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BG4" s="6" t="s">
+      <c r="BH4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BH4" s="6" t="s">
+      <c r="BI4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BI4" s="6" t="s">
+      <c r="BJ4" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="BJ4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:BK1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:BJ1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
